--- a/DeviceSizes.xlsx
+++ b/DeviceSizes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benlussier/Documents/SourceCode/Personal/exitcount/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E498330-DBC2-D640-ACC3-153350E548C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155E4909-6FF8-0C43-B3FA-3FE60D88870B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{F955F011-CAF6-8942-AB2D-34234E8AB8A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
   <si>
     <t>Apple iPhone 12 Pro Max</t>
   </si>
@@ -280,6 +280,42 @@
   </si>
   <si>
     <t>Largest</t>
+  </si>
+  <si>
+    <t>iphone 12 pro max</t>
+  </si>
+  <si>
+    <t>galaxy s8</t>
+  </si>
+  <si>
+    <t>galaxy s7</t>
+  </si>
+  <si>
+    <t>galaxy s2</t>
+  </si>
+  <si>
+    <t>iphone 4</t>
+  </si>
+  <si>
+    <t>phones</t>
+  </si>
+  <si>
+    <t>tablets</t>
+  </si>
+  <si>
+    <t>ipad 3,4,air,air2</t>
+  </si>
+  <si>
+    <t>galaxy tab 2</t>
+  </si>
+  <si>
+    <t>galaxy tab 3 10"</t>
+  </si>
+  <si>
+    <t>asus nexus 7 v2</t>
+  </si>
+  <si>
+    <t>ipad pro</t>
   </si>
 </sst>
 </file>
@@ -287,7 +323,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="??/?"/>
+    <numFmt numFmtId="164" formatCode="??/?"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -341,12 +377,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -662,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF19EAC-48C3-E348-B97D-77AED63D09CF}">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,7 +712,7 @@
     <col min="16" max="16" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>58</v>
       </c>
@@ -699,7 +735,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>55</v>
       </c>
@@ -727,8 +763,11 @@
       <c r="K2" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>78</v>
       </c>
@@ -776,8 +815,11 @@
       <c r="P3" s="9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="Q3" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -813,11 +855,20 @@
         <f t="shared" ref="K4:K64" si="1">J4</f>
         <v>2.164102564102564</v>
       </c>
+      <c r="N4">
+        <v>320</v>
+      </c>
+      <c r="O4">
+        <v>533</v>
+      </c>
       <c r="P4" s="4">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -853,11 +904,20 @@
         <f t="shared" si="1"/>
         <v>2.1642512077294684</v>
       </c>
+      <c r="N5">
+        <v>375</v>
+      </c>
+      <c r="O5">
+        <v>667</v>
+      </c>
       <c r="P5" s="4">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -893,11 +953,20 @@
         <f t="shared" si="1"/>
         <v>2.1642512077294684</v>
       </c>
+      <c r="N6">
+        <v>360</v>
+      </c>
+      <c r="O6">
+        <v>740</v>
+      </c>
       <c r="P6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+        <v>2.06</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -945,8 +1014,11 @@
       <c r="P7" s="4">
         <v>2.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>78</v>
       </c>
@@ -984,7 +1056,7 @@
       </c>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -1021,7 +1093,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -1058,7 +1130,7 @@
         <v>1.7786666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -1095,7 +1167,7 @@
         <v>1.7749999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="6" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>78</v>
       </c>
@@ -1133,7 +1205,7 @@
       </c>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -1170,7 +1242,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1207,7 +1279,7 @@
         <v>1.7749999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -1244,7 +1316,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -2467,7 +2539,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -2504,7 +2576,7 @@
         <v>1.6611111111111112</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -2541,7 +2613,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -2578,7 +2650,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -2615,7 +2687,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -2652,7 +2724,7 @@
         <v>1.9720101781170483</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -2689,7 +2761,7 @@
         <v>1.8804071246819338</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -2726,7 +2798,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -2763,7 +2835,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -2800,7 +2872,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>79</v>
       </c>
@@ -2837,7 +2909,7 @@
         <v>1.333984375</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -2874,7 +2946,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>79</v>
       </c>
@@ -2911,7 +2983,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -2947,8 +3019,11 @@
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="M61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -2993,8 +3068,11 @@
       <c r="P62" s="4">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="Q62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -3031,7 +3109,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>79</v>
       </c>
@@ -3076,8 +3154,11 @@
       <c r="P64" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="Q64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -3122,8 +3203,11 @@
       <c r="P65" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="Q65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -3168,8 +3252,11 @@
       <c r="P66" s="4">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="Q66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>79</v>
       </c>
@@ -3205,8 +3292,20 @@
         <f t="shared" si="3"/>
         <v>1.7066666666666668</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>1024</v>
+      </c>
+      <c r="O67">
+        <v>1366</v>
+      </c>
+      <c r="P67" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -3243,7 +3342,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -3280,7 +3379,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>79</v>
       </c>
@@ -3317,7 +3416,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -3354,7 +3453,7 @@
         <v>1.5993377483443709</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>79</v>
       </c>
